--- a/Union_Allocation_Files/Union Contribution Automation.xlsx
+++ b/Union_Allocation_Files/Union Contribution Automation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Desktop\Github Portfolio\ThomasWatsonCPA.github.io\Union_Allocation_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B94316F-1127-4DA1-B6C7-FCA9D8A6562C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F3392F-1435-4A53-A8BE-FEB946A116F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EB23D61E-3B10-458D-828A-F81A9EF7019C}"/>
   </bookViews>
@@ -161,7 +161,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -197,14 +198,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -212,23 +212,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -238,6 +249,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -271,16 +285,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B6F4A45-C29A-493E-8DD8-CD737867576F}" name="Data" displayName="Data" ref="A1:I24" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B6F4A45-C29A-493E-8DD8-CD737867576F}" name="Data" displayName="Data" ref="A1:I24" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:I24" xr:uid="{6B6F4A45-C29A-493E-8DD8-CD737867576F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B7272EDE-1B10-4A36-96C9-ACD1FEA3A454}" uniqueName="1" name="Class" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{4044CB69-F422-453C-AB3A-87F59E05A26B}" uniqueName="2" name="Type" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D44A1B92-8716-4342-83F8-3543DAF6A27E}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{AFF295BF-B784-4048-9025-1FB5C2139966}" uniqueName="4" name="Hire Date" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{D5F983B9-4F3B-4A96-83D7-4A7EE1CADD60}" uniqueName="5" name="Term Date" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{1AC5D849-C6D8-4AA3-B031-B4F71F2352BF}" uniqueName="6" name="Gross Wages" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{A2527ABE-17A1-4CBF-9C54-17F34B746C18}" uniqueName="7" name="Allocation Date" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B7272EDE-1B10-4A36-96C9-ACD1FEA3A454}" uniqueName="1" name="Class" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4044CB69-F422-453C-AB3A-87F59E05A26B}" uniqueName="2" name="Type" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D44A1B92-8716-4342-83F8-3543DAF6A27E}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{AFF295BF-B784-4048-9025-1FB5C2139966}" uniqueName="4" name="Hire Date" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D5F983B9-4F3B-4A96-83D7-4A7EE1CADD60}" uniqueName="5" name="Term Date" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1AC5D849-C6D8-4AA3-B031-B4F71F2352BF}" uniqueName="6" name="Gross Wages" queryTableFieldId="6" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{A2527ABE-17A1-4CBF-9C54-17F34B746C18}" uniqueName="7" name="Allocation Date" queryTableFieldId="7" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{13EFF635-5273-4388-B533-B516AD2C5F4C}" uniqueName="8" name="Allocation Years" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{24EB862E-5F61-4C2B-B024-72CEEF932A31}" uniqueName="9" name="Employee Allocation" queryTableFieldId="9" dataCellStyle="Comma"/>
   </tableColumns>
@@ -608,716 +622,714 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="3" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>32842</v>
       </c>
-      <c r="E2" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F2" s="5">
         <v>10365</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="6">
         <v>45382</v>
       </c>
       <c r="H2">
         <v>34</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>2032.0789776357828</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>33281</v>
       </c>
-      <c r="E3" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F3" s="5">
         <v>10435</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="6">
         <v>45382</v>
       </c>
       <c r="H3">
         <v>33</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>1972.3119488817892</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>33725</v>
       </c>
-      <c r="E4" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F4" s="5">
         <v>11516</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <v>45382</v>
       </c>
       <c r="H4">
         <v>31</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>1852.777891373802</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>33770</v>
       </c>
-      <c r="E5" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F5" s="5">
         <v>14239</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <v>45382</v>
       </c>
       <c r="H5">
         <v>31</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>1852.777891373802</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>33928</v>
       </c>
-      <c r="E6" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F6" s="5">
         <v>15636</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="6">
         <v>45382</v>
       </c>
       <c r="H6">
         <v>31</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>1852.777891373802</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>34338</v>
       </c>
-      <c r="E7" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F7" s="5">
         <v>12091</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="6">
         <v>45382</v>
       </c>
       <c r="H7">
         <v>30</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>1793.0108626198084</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>35983</v>
       </c>
-      <c r="E8" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F8" s="5">
         <v>17766</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="6">
         <v>45382</v>
       </c>
       <c r="H8">
         <v>25</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>1494.1757188498402</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>45265</v>
       </c>
-      <c r="E9" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F9" s="5">
         <v>12578</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="6">
         <v>45382</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>298.83514376996806</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>44561</v>
       </c>
-      <c r="E10" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F10" s="5">
         <v>8413</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="6">
         <v>45382</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>298.83514376996806</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>44974</v>
       </c>
-      <c r="E11" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F11" s="5">
         <v>16745</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="6">
         <v>45382</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>298.83514376996806</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>40513</v>
       </c>
-      <c r="E12" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F12" s="5">
         <v>9235</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="6">
         <v>45382</v>
       </c>
       <c r="H12">
         <v>13</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>776.97137380191703</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>41148</v>
       </c>
-      <c r="E13" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F13" s="5">
         <v>12851</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="6">
         <v>45382</v>
       </c>
       <c r="H13">
         <v>11</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>657.43731629392971</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="6">
         <v>41737</v>
       </c>
-      <c r="E14" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F14" s="5">
         <v>12983</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="6">
         <v>45382</v>
       </c>
       <c r="H14">
         <v>9</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>537.90325878594251</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="6">
         <v>41962</v>
       </c>
-      <c r="E15" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F15" s="5">
         <v>13170</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="6">
         <v>45382</v>
       </c>
       <c r="H15">
         <v>9</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>537.90325878594251</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="6">
         <v>44683</v>
       </c>
-      <c r="E16" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F16" s="5">
         <v>13502</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="6">
         <v>45382</v>
       </c>
       <c r="H16">
         <v>5</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="1">
         <v>298.83514376996806</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="6">
         <v>45159</v>
       </c>
-      <c r="E17" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F17" s="5">
         <v>14972</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="6">
         <v>45382</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <v>298.83514376996806</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="6">
         <v>39861</v>
       </c>
-      <c r="E18" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F18" s="5">
         <v>8767</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="6">
         <v>45382</v>
       </c>
       <c r="H18">
         <v>15</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>896.50543130990422</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="6">
         <v>41602</v>
       </c>
-      <c r="E19" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F19" s="5">
         <v>18691</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="6">
         <v>45382</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <v>597.67028753993611</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="6">
         <v>43063</v>
       </c>
-      <c r="E20" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="6">
+        <v>2958465</v>
+      </c>
+      <c r="F20" s="5">
         <v>19686</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="6">
         <v>45382</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>358.60217252396166</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="6">
         <v>35983</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="6">
         <v>45301</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>2307</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="6">
         <v>45382</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="6">
         <v>37986</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="6">
         <v>45309</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <v>4389</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="6">
         <v>45382</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="6">
         <v>39861</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="6">
         <v>45322</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>4040</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="6">
         <v>45382</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="6">
         <v>33725</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="6">
         <v>45341</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>2867</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="6">
         <v>45382</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <v>0</v>
       </c>
     </row>
